--- a/doc/数据库字段类型.xlsx
+++ b/doc/数据库字段类型.xlsx
@@ -14,92 +14,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>MYSQL数据类型</t>
   </si>
   <si>
-    <t>兼容数据类型</t>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>字符串类型</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>0-255 bytes</t>
+  </si>
+  <si>
+    <t>定长字符串</t>
+  </si>
+  <si>
+    <t>char(n)和varchar(n)中括号中n代表字符的个数，
+并不代表字节个数，比如char(30)就可以存储30个字符</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>0-65535 bytes</t>
+  </si>
+  <si>
+    <t>变长字符串</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>二进制形式的长文本数据</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>0-4294967295 bytes</t>
+  </si>
+  <si>
+    <t>二进制形式的极大文本数据</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>极大文本数据</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>0-16777215 bytes</t>
+  </si>
+  <si>
+    <t>二进制形式的中等长度文本数据</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>中等长度文本数据</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>短文本字符串</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>长文本数据</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>不超过255个字符的二进制字符串</t>
+  </si>
+  <si>
+    <t>日期和时间类</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>1 bytes</t>
+  </si>
+  <si>
+    <t>1901/2155</t>
+  </si>
+  <si>
+    <t>年份值：YYYY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>3 bytes</t>
+  </si>
+  <si>
+    <t>1000-01-01/9999-12-31</t>
+  </si>
+  <si>
+    <t>日期值：YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>3 Bytes</t>
+  </si>
+  <si>
+    <t>-838:59:59'/'838:59:59'</t>
+  </si>
+  <si>
+    <t>时间值：HH:MM:SS</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
+  </si>
+  <si>
+    <t>1000-01-01 00:00:00' 到 '9999-12-31 23:59:59'</t>
+  </si>
+  <si>
+    <t>混合日期和时间值：YYYY-MM-DD hh:mm:ss</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>4 bytes</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:00:01'UTC到'2038-01-19 03:14:07'UTC</t>
+  </si>
+  <si>
+    <t>混合日期和时间值，时间戳：HH:MM-DD hh:mm:ss</t>
+  </si>
+  <si>
+    <t>数值类</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>有符号（0,255）</t>
+  </si>
+  <si>
+    <t>小整数值</t>
+  </si>
+  <si>
+    <t>TINYINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>无符号（-128,127）</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>2 bytes</t>
+  </si>
+  <si>
+    <t>有符号（-32728,32767）</t>
+  </si>
+  <si>
+    <t>大整数值</t>
+  </si>
+  <si>
+    <t>SMALLINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>无符号（0,65535）</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>有符号（-8388608,8388607）</t>
+  </si>
+  <si>
+    <t>MEDIUMINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>无符号（0，16777215）</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>有符号(-2147483648,2147483647)</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED</t>
+  </si>
+  <si>
+    <t>无符号(0,4294967295)</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>INTEGER UNSIGNED</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>有符号(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，
+(1.175 494 351 E-38，3.402 823 466 351 E+38)</t>
+  </si>
+  <si>
+    <t>单精度浮点数值</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>有符号(-1.797 693 134 862 315 7 E+308，
+-2.225 073 858 507 201 4 E-308)，0，
+(2.225 073 858 507 201 4 E-308，
+1.797 693 134 862 315 7 E+308)</t>
+  </si>
+  <si>
+    <t>双精度浮点数值</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>无符号0，(2.225 073 858 507 201 4 E-308，
+1.797 693 134 862 315 7 E+308)</t>
   </si>
   <si>
     <t>BIGINT</t>
   </si>
   <si>
+    <t>有符号(-9223372036854775808,9223372036854775807)</t>
+  </si>
+  <si>
+    <t>极大整数值</t>
+  </si>
+  <si>
     <t>BIGINT UNSIGNE</t>
   </si>
   <si>
+    <t>无符号(0,18446744073709551615)</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>DECIMAL(M,D)</t>
+  </si>
+  <si>
+    <t>小数值,如DECIMAL(3,2)共三位，两位小数</t>
+  </si>
+  <si>
     <t>BINARY</t>
   </si>
   <si>
     <t>BIT</t>
   </si>
   <si>
-    <t>BLOB</t>
-  </si>
-  <si>
     <t>BOOL</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>DOUBLE PRECISION</t>
-  </si>
-  <si>
     <t>ENUM</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>INT UNSIGNED</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>INTEGER UNSIGNED</t>
-  </si>
-  <si>
     <t>LONG VARBINARY</t>
   </si>
   <si>
     <t>LONG VARCHAR</t>
   </si>
   <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>MEDIUMINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
     <t>NUMERIC</t>
   </si>
   <si>
@@ -109,40 +316,7 @@
     <t>SET</t>
   </si>
   <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>SMALLINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>TINYINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
     <t>VARBINARY</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>YEAR</t>
   </si>
   <si>
     <t>json</t>
@@ -168,22 +342,22 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +502,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,12 +610,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,12 +687,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,163 +850,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="16" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,237 +1363,575 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.5384615384615" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1538461538462" customWidth="1"/>
+    <col min="1" max="1" width="28.5384615384615" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="51.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="48.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="20.4" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" ht="20.4" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="20.4" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" ht="34" spans="1:4">
+      <c r="A30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" ht="68" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" ht="34" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/数据库字段类型.xlsx
+++ b/doc/数据库字段类型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>MYSQL数据类型</t>
   </si>
@@ -44,6 +44,9 @@
 并不代表字节个数，比如char(30)就可以存储30个字符</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>VARCHAR</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>年份值：YYYY</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t>时间值：HH:MM:SS</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
     <t>混合日期和时间值：YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
+    <t>LocalDateTime</t>
+  </si>
+  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -170,6 +182,9 @@
     <t>混合日期和时间值，时间戳：HH:MM-DD hh:mm:ss</t>
   </si>
   <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
     <t>数值类</t>
   </si>
   <si>
@@ -182,6 +197,9 @@
     <t>小整数值</t>
   </si>
   <si>
+    <t>Byte</t>
+  </si>
+  <si>
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
@@ -200,6 +218,9 @@
     <t>大整数值</t>
   </si>
   <si>
+    <t>Short</t>
+  </si>
+  <si>
     <t>SMALLINT UNSIGNED</t>
   </si>
   <si>
@@ -222,6 +243,9 @@
   </si>
   <si>
     <t>有符号(-2147483648,2147483647)</t>
+  </si>
+  <si>
+    <t>Integer</t>
   </si>
   <si>
     <t>INT UNSIGNED</t>
@@ -244,6 +268,9 @@
   </si>
   <si>
     <t>单精度浮点数值</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
   <si>
     <t>DOUBLE</t>
@@ -258,6 +285,9 @@
     <t>双精度浮点数值</t>
   </si>
   <si>
+    <t>Double</t>
+  </si>
+  <si>
     <t>DOUBLE PRECISION</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
     <t>极大整数值</t>
   </si>
   <si>
+    <t>Long</t>
+  </si>
+  <si>
     <t>BIGINT UNSIGNE</t>
   </si>
   <si>
@@ -289,10 +322,19 @@
     <t>小数值,如DECIMAL(3,2)共三位，两位小数</t>
   </si>
   <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
     <t>BINARY</t>
   </si>
   <si>
+    <t>byte[]</t>
+  </si>
+  <si>
     <t>BIT</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
   <si>
     <t>BOOL</t>
@@ -328,9 +370,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -357,22 +399,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -380,7 +421,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,31 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +467,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -448,26 +482,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,13 +512,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -514,175 +556,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,17 +790,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,35 +823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,11 +864,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,152 +892,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1365,8 +1404,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1375,6 +1414,7 @@
     <col min="2" max="2" width="19.3846153846154" customWidth="1"/>
     <col min="3" max="3" width="51.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="48.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="16.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.4" spans="1:4">
@@ -1387,543 +1427,631 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20.4" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" ht="20.4" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="19" ht="20.4" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:4">
-      <c r="A26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:4">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" ht="34" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="E26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:5">
+      <c r="A28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" ht="68" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="D28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" ht="34" spans="1:4">
-      <c r="A32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="34" spans="1:5">
+      <c r="A30" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="11" t="s">
+    </row>
+    <row r="31" ht="68" spans="1:5">
+      <c r="A31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:4">
-      <c r="A35" s="12" t="s">
+      <c r="B31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
+    <row r="32" ht="34" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
